--- a/template/temp.xlsx
+++ b/template/temp.xlsx
@@ -14,8 +14,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Apache POI</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="1">
+      <text>
+        <t>数据出错</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1">
+      <text>
+        <t>数据出错</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,11 +95,18 @@
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yumeng1</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,12 +123,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -129,6 +168,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,12 +477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>111111</v>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -534,6 +577,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
